--- a/data/financial_statements/sofp/IPG.xlsx
+++ b/data/financial_statements/sofp/IPG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,138 +601,138 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1768000000</v>
+        <v>1768300000</v>
       </c>
       <c r="C2">
-        <v>1983000000</v>
+        <v>1983400000</v>
       </c>
       <c r="D2">
-        <v>2402000000</v>
+        <v>2402300000</v>
       </c>
       <c r="E2">
         <v>3270000000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>6279000000</v>
+        <v>6279100000</v>
       </c>
       <c r="C3">
-        <v>6248000000</v>
+        <v>6247900000</v>
       </c>
       <c r="D3">
-        <v>6335000000</v>
+        <v>6335200000</v>
       </c>
       <c r="E3">
-        <v>7525000000</v>
+        <v>7524900000</v>
       </c>
       <c r="F3">
-        <v>6193000000</v>
+        <v>6192900000</v>
       </c>
       <c r="G3">
         <v>5937000000</v>
@@ -855,20 +966,20 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>488000000</v>
+        <v>487500000</v>
       </c>
       <c r="C4">
-        <v>530000000</v>
+        <v>529500000</v>
       </c>
       <c r="D4">
-        <v>533000000</v>
+        <v>532500000</v>
       </c>
       <c r="E4">
-        <v>437000000</v>
+        <v>436900000</v>
       </c>
       <c r="F4">
         <v>450000000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>8535000000</v>
+        <v>8534900000</v>
       </c>
       <c r="C5">
-        <v>8761000000</v>
+        <v>8760800000</v>
       </c>
       <c r="D5">
         <v>9270000000</v>
       </c>
       <c r="E5">
-        <v>11232000000</v>
+        <v>11231800000</v>
       </c>
       <c r="F5">
-        <v>9133000000</v>
+        <v>9132900000</v>
       </c>
       <c r="G5">
         <v>8782500000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2025000000</v>
+        <v>632900000</v>
       </c>
       <c r="C6">
-        <v>2088000000</v>
+        <v>641600000</v>
       </c>
       <c r="D6">
-        <v>2161000000</v>
+        <v>654900000</v>
       </c>
       <c r="E6">
-        <v>2220000000</v>
+        <v>675800000</v>
       </c>
       <c r="F6">
-        <v>2183000000</v>
+        <v>666300000</v>
       </c>
       <c r="G6">
         <v>658200000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>5578000000</v>
+        <v>5578300000</v>
       </c>
       <c r="C7">
         <v>5655000000</v>
       </c>
       <c r="D7">
-        <v>5725000000</v>
+        <v>5724600000</v>
       </c>
       <c r="E7">
-        <v>5756000000</v>
+        <v>5756200000</v>
       </c>
       <c r="F7">
-        <v>5784000000</v>
+        <v>5784100000</v>
       </c>
       <c r="G7">
         <v>5837000000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>267200000</v>
@@ -1465,23 +1576,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>470000000</v>
+        <v>470300000</v>
       </c>
       <c r="C9">
-        <v>445000000</v>
+        <v>444800000</v>
       </c>
       <c r="D9">
-        <v>416000000</v>
+        <v>416100000</v>
       </c>
       <c r="E9">
-        <v>400000000</v>
+        <v>399600000</v>
       </c>
       <c r="F9">
-        <v>432000000</v>
+        <v>431800000</v>
       </c>
       <c r="G9">
         <v>411100000</v>
@@ -1587,8 +1698,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>8340300000</v>
@@ -1709,23 +1820,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>16875000000</v>
+        <v>16875200000</v>
       </c>
       <c r="C11">
-        <v>17249000000</v>
+        <v>17249200000</v>
       </c>
       <c r="D11">
-        <v>17881000000</v>
+        <v>17880900000</v>
       </c>
       <c r="E11">
-        <v>19909000000</v>
+        <v>19909200000</v>
       </c>
       <c r="F11">
-        <v>17805000000</v>
+        <v>17805300000</v>
       </c>
       <c r="G11">
         <v>17321700000</v>
@@ -1831,23 +1942,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>6536000000</v>
+        <v>6535600000</v>
       </c>
       <c r="C12">
-        <v>6861000000</v>
+        <v>6861300000</v>
       </c>
       <c r="D12">
-        <v>7245000000</v>
+        <v>7245300000</v>
       </c>
       <c r="E12">
         <v>8960000000</v>
       </c>
       <c r="F12">
-        <v>6844000000</v>
+        <v>6844200000</v>
       </c>
       <c r="G12">
         <v>6605900000</v>
@@ -1953,8 +2064,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>669300000</v>
@@ -2075,23 +2186,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>294000000</v>
+        <v>56400000</v>
       </c>
       <c r="C14">
-        <v>301000000</v>
+        <v>46300000</v>
       </c>
       <c r="D14">
-        <v>330000000</v>
+        <v>59700000</v>
       </c>
       <c r="E14">
-        <v>314000000</v>
+        <v>48200000</v>
       </c>
       <c r="F14">
-        <v>815000000</v>
+        <v>544500000</v>
       </c>
       <c r="G14">
         <v>559800000</v>
@@ -2197,23 +2308,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>1313000000</v>
+        <v>670100000</v>
       </c>
       <c r="C15">
-        <v>1263000000</v>
+        <v>676600000</v>
       </c>
       <c r="D15">
-        <v>1337000000</v>
+        <v>788000000</v>
       </c>
       <c r="E15">
-        <v>1573000000</v>
+        <v>697900000</v>
       </c>
       <c r="F15">
-        <v>1386000000</v>
+        <v>629800000</v>
       </c>
       <c r="G15">
         <v>683300000</v>
@@ -2277,17 +2388,17 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>8169000000</v>
+        <v>8169200000</v>
       </c>
       <c r="C16">
-        <v>8463000000</v>
+        <v>8462700000</v>
       </c>
       <c r="D16">
-        <v>8954000000</v>
+        <v>8954200000</v>
       </c>
       <c r="E16">
         <v>10890000000</v>
@@ -2399,23 +2510,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>4312000000</v>
+        <v>2902500000</v>
       </c>
       <c r="C17">
-        <v>4375000000</v>
+        <v>2906100000</v>
       </c>
       <c r="D17">
-        <v>4437000000</v>
+        <v>2908100000</v>
       </c>
       <c r="E17">
-        <v>4485000000</v>
+        <v>2908600000</v>
       </c>
       <c r="F17">
-        <v>4444000000</v>
+        <v>2908300000</v>
       </c>
       <c r="G17">
         <v>2907900000</v>
@@ -2521,8 +2632,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>293200000</v>
@@ -2643,8 +2754,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-267000000</v>
@@ -2684,8 +2795,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>9100000</v>
@@ -2806,23 +2917,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>928000000</v>
+        <v>634500000</v>
       </c>
       <c r="C21">
-        <v>913000000</v>
+        <v>625100000</v>
       </c>
       <c r="D21">
-        <v>933000000</v>
+        <v>645000000</v>
       </c>
       <c r="E21">
-        <v>930000000</v>
+        <v>600700000</v>
       </c>
       <c r="F21">
-        <v>1018000000</v>
+        <v>639100000</v>
       </c>
       <c r="G21">
         <v>671500000</v>
@@ -2928,8 +3039,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>5248900000</v>
@@ -3050,23 +3161,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>13409000000</v>
+        <v>13418100000</v>
       </c>
       <c r="C23">
-        <v>13751000000</v>
+        <v>13760200000</v>
       </c>
       <c r="D23">
-        <v>14324000000</v>
+        <v>14332100000</v>
       </c>
       <c r="E23">
-        <v>16304000000</v>
+        <v>16320000000</v>
       </c>
       <c r="F23">
-        <v>14511000000</v>
+        <v>14584000000</v>
       </c>
       <c r="G23">
         <v>14210400000</v>
@@ -3172,8 +3283,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>1239300000</v>
@@ -3294,8 +3405,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AL25">
         <v>221500000</v>
@@ -3308,23 +3419,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>40000000</v>
+        <v>39600000</v>
       </c>
       <c r="C26">
-        <v>40000000</v>
+        <v>39600000</v>
       </c>
       <c r="D26">
-        <v>40000000</v>
+        <v>39700000</v>
       </c>
       <c r="E26">
-        <v>39000000</v>
+        <v>39300000</v>
       </c>
       <c r="F26">
-        <v>39000000</v>
+        <v>39300000</v>
       </c>
       <c r="G26">
         <v>39300000</v>
@@ -3430,23 +3541,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3450000000</v>
+        <v>3449900000</v>
       </c>
       <c r="C27">
-        <v>3312000000</v>
+        <v>3311800000</v>
       </c>
       <c r="D27">
-        <v>3197000000</v>
+        <v>3196700000</v>
       </c>
       <c r="E27">
-        <v>3154000000</v>
+        <v>3154300000</v>
       </c>
       <c r="F27">
-        <v>2909000000</v>
+        <v>2908900000</v>
       </c>
       <c r="G27">
         <v>2777500000</v>
@@ -3552,8 +3663,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>221600000</v>
@@ -3635,23 +3746,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>3405000000</v>
+        <v>3457100000</v>
       </c>
       <c r="C29">
-        <v>3437000000</v>
+        <v>3489000000</v>
       </c>
       <c r="D29">
-        <v>3487000000</v>
+        <v>3548800000</v>
       </c>
       <c r="E29">
-        <v>3526000000</v>
+        <v>3589200000</v>
       </c>
       <c r="F29">
-        <v>3171000000</v>
+        <v>3221300000</v>
       </c>
       <c r="G29">
         <v>3111300000</v>
@@ -3757,23 +3868,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3405000000</v>
+        <v>3457100000</v>
       </c>
       <c r="C30">
-        <v>3437000000</v>
+        <v>3489000000</v>
       </c>
       <c r="D30">
-        <v>3487000000</v>
+        <v>3548800000</v>
       </c>
       <c r="E30">
-        <v>3526000000</v>
+        <v>3589200000</v>
       </c>
       <c r="F30">
-        <v>3171000000</v>
+        <v>3221300000</v>
       </c>
       <c r="G30">
         <v>3111300000</v>
@@ -3879,8 +3990,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>16875200000</v>
@@ -4001,8 +4112,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>396600000</v>
@@ -4123,8 +4234,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-2121200000</v>
@@ -4245,23 +4356,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>2838000000</v>
+        <v>1190600000</v>
       </c>
       <c r="C34">
-        <v>2693000000</v>
+        <v>969000000</v>
       </c>
       <c r="D34">
-        <v>2365000000</v>
+        <v>565500000</v>
       </c>
       <c r="E34">
-        <v>1529000000</v>
+        <v>-313200000</v>
       </c>
       <c r="F34">
-        <v>2769000000</v>
+        <v>962800000</v>
       </c>
       <c r="G34">
         <v>1127100000</v>
@@ -4367,23 +4478,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>4606000000</v>
+        <v>2958900000</v>
       </c>
       <c r="C35">
-        <v>4676000000</v>
+        <v>2952400000</v>
       </c>
       <c r="D35">
-        <v>4767000000</v>
+        <v>2967800000</v>
       </c>
       <c r="E35">
-        <v>4799000000</v>
+        <v>2956800000</v>
       </c>
       <c r="F35">
-        <v>5259000000</v>
+        <v>3452800000</v>
       </c>
       <c r="G35">
         <v>3467700000</v>
